--- a/src/main/resources/excel/FlujosMCSS.xlsx
+++ b/src/main/resources/excel/FlujosMCSS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5762A5DB-1A96-4D5D-A7AC-4E6CB07DB60E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0ED161-6145-4CE1-8E4B-08153464640F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17830" windowHeight="3800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>FAIL</t>
   </si>
@@ -47,13 +47,25 @@
   </si>
   <si>
     <t>zion resident</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>https://reqres.in/api</t>
+  </si>
+  <si>
+    <t>candy</t>
+  </si>
+  <si>
+    <t>Practicante</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +84,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -113,7 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -132,6 +152,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -413,34 +439,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y71"/>
+  <dimension ref="A1:Z71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -461,38 +490,61 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -549,7 +601,11 @@
     <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{2E085D8C-7D9E-4EA3-AF0C-6CF53A11852A}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{312E2ECB-4D6F-4E9C-AF48-EAE15CB270DA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/main/resources/excel/FlujosMCSS.xlsx
+++ b/src/main/resources/excel/FlujosMCSS.xlsx
@@ -3,12 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0ED161-6145-4CE1-8E4B-08153464640F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0131D2A4-DBD2-463C-A9B4-C1BF61D44CA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17830" windowHeight="3800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17830" windowHeight="3800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="prueba" sheetId="1" r:id="rId1"/>
+    <sheet name="create" sheetId="1" r:id="rId1"/>
+    <sheet name="register" sheetId="2" r:id="rId2"/>
+    <sheet name="update" sheetId="3" r:id="rId3"/>
+    <sheet name="getallresources" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>FAIL</t>
   </si>
@@ -439,37 +442,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z71"/>
+  <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -489,62 +486,48 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="U2" t="s">
+      <c r="S2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="U3" t="s">
+      <c r="S3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -608,4 +591,136 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BBBCD2-25EA-4E3B-9055-ED4B1E6A4CE1}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{3840332A-BACE-43B3-8693-26BD82BAFC59}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2D1DDB-DE80-4094-A204-AFC62A8B5849}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{E7BA1D9B-2244-42CB-A506-E7C0A7C03C35}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{526E3029-6882-4275-836A-42FDC7A1EDA4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F282A85A-968E-4565-8E6A-244455070827}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{83DE174D-DDBA-4CD4-BAA8-BC4E8FA0E240}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>